--- a/New_UI.xlsx
+++ b/New_UI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://peterru-my.sharepoint.com/personal/me_peterrusiecki_eu/Documents/Code/hexapod_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="657" documentId="8_{66BD43C0-C38C-4CBA-8B7E-386B1F07CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C753CF-6CCC-4B63-B53D-DC7F19349F0A}"/>
+  <xr:revisionPtr revIDLastSave="940" documentId="8_{66BD43C0-C38C-4CBA-8B7E-386B1F07CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89878F54-4D55-4B1B-8EBE-214D56543E8B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{EE134321-7F2B-40EB-98BD-7232E33EDF77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Calibration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>Old Button</t>
   </si>
@@ -133,18 +134,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -161,6 +150,87 @@
   </si>
   <si>
     <t>Twist</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>X+</t>
+  </si>
+  <si>
+    <t>X-</t>
+  </si>
+  <si>
+    <t>Y+</t>
+  </si>
+  <si>
+    <t>Y-</t>
+  </si>
+  <si>
+    <t>Z+</t>
+  </si>
+  <si>
+    <t>Z-</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Leg 1</t>
+  </si>
+  <si>
+    <t>Leg 2</t>
+  </si>
+  <si>
+    <t>Leg 5</t>
+  </si>
+  <si>
+    <t>Leg 6</t>
+  </si>
+  <si>
+    <t>Leg 3</t>
+  </si>
+  <si>
+    <t>Leg 4</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Refresh</t>
   </si>
 </sst>
 </file>
@@ -229,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -604,58 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top style="thick">
-        <color theme="9"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="9"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="9"/>
-      </right>
-      <top style="thick">
-        <color theme="9"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="9"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -718,11 +736,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -741,30 +956,102 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,15 +1063,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,6 +1070,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,12 +1105,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,31 +1132,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1197,8 +1505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B6A217-AD0B-47B8-A213-84521D53437C}">
   <dimension ref="A1:CW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BC23" sqref="BC23:BF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.9296875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1499,12 +1810,12 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
     </row>
-    <row r="3" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:101" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>30</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="20"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1549,7 +1860,7 @@
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
+      <c r="AV3" s="8"/>
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
@@ -1566,7 +1877,7 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
+      <c r="BM3" s="8"/>
       <c r="BN3" s="3"/>
       <c r="BO3" s="3"/>
       <c r="BP3" s="3"/>
@@ -1590,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:101" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>60</v>
       </c>
@@ -1636,33 +1947,37 @@
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW4" s="6"/>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
+      <c r="AZ4" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
       <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="9"/>
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN4" s="3"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN4" s="6"/>
       <c r="BO4" s="3"/>
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
@@ -1676,7 +1991,7 @@
       <c r="CQ4" s="4"/>
       <c r="CR4" s="4"/>
     </row>
-    <row r="5" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:101" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>90</v>
       </c>
@@ -1721,15 +2036,15 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="6"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
@@ -1744,14 +2059,14 @@
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="22"/>
-      <c r="BQ5" s="23"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
       <c r="BS5" s="3"/>
       <c r="BV5" s="4"/>
@@ -1766,7 +2081,7 @@
       <c r="CQ5" s="4"/>
       <c r="CR5" s="4"/>
     </row>
-    <row r="6" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>120</v>
       </c>
@@ -1812,14 +2127,18 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="46"/>
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
@@ -1830,12 +2149,16 @@
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="16"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
+      <c r="BJ6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="47"/>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
@@ -1848,7 +2171,7 @@
       <c r="CQ6" s="4"/>
       <c r="CR6" s="4"/>
     </row>
-    <row r="7" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -1897,16 +2220,12 @@
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="23"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="8"/>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
@@ -1915,16 +2234,12 @@
       <c r="BF7" s="3"/>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
-      <c r="BI7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="23"/>
-      <c r="BM7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN7" s="3"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="48"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="6"/>
       <c r="BO7" s="3"/>
       <c r="BP7" s="3"/>
       <c r="BQ7" s="3"/>
@@ -1938,7 +2253,7 @@
       <c r="CQ7" s="4"/>
       <c r="CR7" s="4"/>
     </row>
-    <row r="8" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>180</v>
       </c>
@@ -1988,42 +2303,44 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA8" s="3"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ8" s="51"/>
+      <c r="BA8" s="33"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
       <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM8" s="3"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="37"/>
       <c r="BN8" s="3"/>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
       <c r="BR8" s="3"/>
       <c r="BS8" s="3"/>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BX8" s="27"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="27"/>
-      <c r="CA8" s="27"/>
+      <c r="BV8" s="38"/>
+      <c r="BW8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
       <c r="CE8" s="2" t="s">
         <v>2</v>
       </c>
@@ -2035,7 +2352,7 @@
       <c r="CQ8" s="4"/>
       <c r="CR8" s="4"/>
     </row>
-    <row r="9" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>210</v>
       </c>
@@ -2084,28 +2401,28 @@
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB9" s="3"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB9" s="6"/>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
       <c r="BO9" s="3"/>
@@ -2121,7 +2438,7 @@
       <c r="CQ9" s="4"/>
       <c r="CR9" s="4"/>
     </row>
-    <row r="10" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>240</v>
       </c>
@@ -2169,40 +2486,48 @@
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="3"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="6"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ10" s="46"/>
       <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
+      <c r="BL10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="46"/>
       <c r="BO10" s="3"/>
       <c r="BP10" s="3"/>
       <c r="BQ10" s="3"/>
       <c r="BR10" s="3"/>
       <c r="BS10" s="3"/>
-      <c r="BV10" s="27"/>
-      <c r="BW10" s="27"/>
-      <c r="BX10" s="27"/>
+      <c r="BV10" s="38"/>
+      <c r="BW10" s="38"/>
+      <c r="BX10" s="38"/>
       <c r="CE10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>270</v>
       </c>
@@ -2250,31 +2575,31 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX11" s="22"/>
-      <c r="AY11" s="22"/>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="3"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB11" s="6"/>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="22"/>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI11" s="45"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="45"/>
+      <c r="BN11" s="47"/>
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3"/>
@@ -2294,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>300</v>
       </c>
@@ -2343,25 +2668,21 @@
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
       <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB12" s="3"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="6"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI12" s="3"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="53"/>
+      <c r="BI12" s="6"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
@@ -2372,11 +2693,11 @@
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
       <c r="BS12" s="3"/>
-      <c r="BV12" s="26"/>
-      <c r="BW12" s="26"/>
-      <c r="BX12" s="26"/>
+      <c r="BV12" s="91"/>
+      <c r="BW12" s="91"/>
+      <c r="BX12" s="91"/>
       <c r="CE12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="CL12" s="4"/>
       <c r="CM12" s="4"/>
@@ -2389,7 +2710,7 @@
       <c r="CT12" s="4"/>
       <c r="CU12" s="4"/>
     </row>
-    <row r="13" spans="1:101" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>330</v>
       </c>
@@ -2444,14 +2765,14 @@
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
+      <c r="BA13" s="7"/>
       <c r="BB13" s="3"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
       <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
+      <c r="BH13" s="7"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
@@ -2559,7 +2880,7 @@
       <c r="CT14" s="4"/>
       <c r="CU14" s="4"/>
     </row>
-    <row r="15" spans="1:101" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>390</v>
       </c>
@@ -2606,30 +2927,38 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
+      <c r="AS15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT15" s="46"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
       <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
+      <c r="BA15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB15" s="46"/>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
+      <c r="BG15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH15" s="46"/>
       <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
+      <c r="BJ15" s="8"/>
+      <c r="BK15" s="8"/>
+      <c r="BL15" s="8"/>
+      <c r="BM15" s="8"/>
       <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
+      <c r="BO15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP15" s="46"/>
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
       <c r="BS15" s="3"/>
@@ -2644,7 +2973,7 @@
       <c r="CT15" s="4"/>
       <c r="CU15" s="4"/>
     </row>
-    <row r="16" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>420</v>
       </c>
@@ -2691,39 +3020,39 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="8"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK16" s="16"/>
-      <c r="BL16" s="16"/>
-      <c r="BM16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK16" s="51"/>
+      <c r="BL16" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM16" s="51"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="48"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="8"/>
       <c r="BR16" s="3"/>
       <c r="BS16" s="3"/>
       <c r="CL16" s="4"/>
@@ -2737,7 +3066,7 @@
       <c r="CT16" s="4"/>
       <c r="CU16" s="4"/>
     </row>
-    <row r="17" spans="1:101" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>450</v>
       </c>
@@ -2783,49 +3112,53 @@
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="16" t="s">
+      <c r="AR17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="16"/>
-      <c r="BC17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG17" s="16"/>
-      <c r="BH17" s="16"/>
-      <c r="BI17" s="16" t="s">
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
-      <c r="BQ17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR17" s="3"/>
+      <c r="BL17" s="49"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ17" s="51"/>
+      <c r="BR17" s="6"/>
       <c r="BS17" s="3"/>
       <c r="CL17" s="4"/>
       <c r="CM17" s="4"/>
@@ -2838,7 +3171,7 @@
       <c r="CT17" s="4"/>
       <c r="CU17" s="4"/>
     </row>
-    <row r="18" spans="1:101" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>480</v>
       </c>
@@ -2883,41 +3216,33 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="22"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="47"/>
       <c r="AY18" s="3"/>
-      <c r="AZ18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="23"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
-      <c r="BF18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG18" s="22"/>
-      <c r="BH18" s="22"/>
-      <c r="BI18" s="23"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
       <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
+      <c r="BK18" s="44"/>
+      <c r="BL18" s="47"/>
       <c r="BM18" s="3"/>
-      <c r="BN18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BO18" s="22"/>
-      <c r="BP18" s="22"/>
-      <c r="BQ18" s="23"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
       <c r="BR18" s="3"/>
       <c r="BS18" s="3"/>
       <c r="CL18" s="4"/>
@@ -2978,9 +3303,11 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
+      <c r="AS19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="46"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
@@ -2999,9 +3326,11 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
       <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
+      <c r="BN19" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO19" s="43"/>
+      <c r="BP19" s="46"/>
       <c r="BQ19" s="3"/>
       <c r="BR19" s="3"/>
       <c r="BS19" s="3"/>
@@ -3016,7 +3345,7 @@
       <c r="CT19" s="4"/>
       <c r="CU19" s="4"/>
     </row>
-    <row r="20" spans="1:101" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:101" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>540</v>
       </c>
@@ -3063,30 +3392,30 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="47"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
       <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
+      <c r="BA20" s="8"/>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="BF20" s="3"/>
       <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
+      <c r="BH20" s="8"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="45"/>
+      <c r="BP20" s="47"/>
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
       <c r="BS20" s="3"/>
@@ -3101,7 +3430,7 @@
       <c r="CT20" s="4"/>
       <c r="CU20" s="4"/>
     </row>
-    <row r="21" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>570</v>
       </c>
@@ -3155,20 +3484,20 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB21" s="3"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB21" s="6"/>
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI21" s="3"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI21" s="6"/>
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
@@ -3180,7 +3509,7 @@
       <c r="BR21" s="3"/>
       <c r="BS21" s="3"/>
     </row>
-    <row r="22" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>600</v>
       </c>
@@ -3231,26 +3560,26 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
-      <c r="AW22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX22" s="22"/>
-      <c r="AY22" s="22"/>
-      <c r="AZ22" s="23"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ22" s="43"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="6"/>
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="16"/>
-      <c r="BI22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ22" s="22"/>
-      <c r="BK22" s="22"/>
-      <c r="BL22" s="23"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
       <c r="BM22" s="3"/>
       <c r="BN22" s="3"/>
       <c r="BO22" s="3"/>
@@ -3269,7 +3598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>630</v>
       </c>
@@ -3322,18 +3651,24 @@
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="16"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD23" s="63"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="64"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="47"/>
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
       <c r="BM23" s="3"/>
@@ -3344,7 +3679,7 @@
       <c r="BR23" s="3"/>
       <c r="BS23" s="3"/>
     </row>
-    <row r="24" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>660</v>
       </c>
@@ -3395,26 +3730,22 @@
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB24" s="3"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="6"/>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="53"/>
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
       <c r="BM24" s="3"/>
       <c r="BN24" s="3"/>
       <c r="BO24" s="3"/>
@@ -3436,7 +3767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>690</v>
       </c>
@@ -3486,32 +3817,32 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA25" s="3"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="37"/>
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ25" s="16"/>
-      <c r="BK25" s="16"/>
-      <c r="BL25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM25" s="3"/>
+      <c r="BH25" s="32"/>
+      <c r="BI25" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL25" s="51"/>
+      <c r="BM25" s="33"/>
       <c r="BN25" s="3"/>
       <c r="BO25" s="3"/>
       <c r="BP25" s="3"/>
@@ -3519,7 +3850,7 @@
       <c r="BR25" s="3"/>
       <c r="BS25" s="3"/>
     </row>
-    <row r="26" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>720</v>
       </c>
@@ -3568,16 +3899,16 @@
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
-      <c r="AZ26" s="23"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="7"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
@@ -3586,23 +3917,23 @@
       <c r="BF26" s="3"/>
       <c r="BG26" s="3"/>
       <c r="BH26" s="3"/>
-      <c r="BI26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ26" s="22"/>
-      <c r="BK26" s="22"/>
-      <c r="BL26" s="23"/>
-      <c r="BM26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN26" s="3"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="32"/>
+      <c r="BM26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN26" s="6"/>
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3"/>
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
     </row>
-    <row r="27" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>750</v>
       </c>
@@ -3650,12 +3981,14 @@
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
+      <c r="AT27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="47"/>
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
@@ -3666,18 +3999,20 @@
       <c r="BG27" s="3"/>
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
-      <c r="BJ27" s="3"/>
-      <c r="BK27" s="3"/>
-      <c r="BL27" s="3"/>
-      <c r="BM27" s="16"/>
-      <c r="BN27" s="3"/>
-      <c r="BO27" s="3"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="47"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO27" s="46"/>
       <c r="BP27" s="3"/>
       <c r="BQ27" s="3"/>
       <c r="BR27" s="3"/>
       <c r="BS27" s="3"/>
     </row>
-    <row r="28" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:101" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>780</v>
       </c>
@@ -3723,40 +4058,44 @@
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
-      <c r="AR28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW28" s="6"/>
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
+      <c r="BA28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB28" s="43"/>
+      <c r="BC28" s="46"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
+      <c r="BF28" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="46"/>
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
-      <c r="BL28" s="3"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="23"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN28" s="45"/>
+      <c r="BO28" s="47"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
       <c r="BR28" s="3"/>
       <c r="BS28" s="3"/>
     </row>
-    <row r="29" spans="1:101" ht="11.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:101" ht="10.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>810</v>
       </c>
@@ -3805,30 +4144,26 @@
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW29" s="3"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="6"/>
       <c r="AX29" s="3"/>
       <c r="AY29" s="3"/>
       <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="47"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="45"/>
+      <c r="BH29" s="47"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
-      <c r="BL29" s="3"/>
-      <c r="BM29" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN29" s="3"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="6"/>
       <c r="BO29" s="3"/>
       <c r="BP29" s="3"/>
       <c r="BQ29" s="3"/>
@@ -3885,7 +4220,7 @@
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
+      <c r="AV30" s="7"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
       <c r="AY30" s="3"/>
@@ -3902,7 +4237,7 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
-      <c r="BM30" s="3"/>
+      <c r="BM30" s="7"/>
       <c r="BN30" s="3"/>
       <c r="BO30" s="3"/>
       <c r="BP30" s="3"/>
@@ -3994,31 +4329,31 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="6"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="39"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="72"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
@@ -4031,36 +4366,36 @@
       <c r="AO32" s="6"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="37" t="s">
+      <c r="AR32" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="38"/>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="39"/>
+      <c r="AS32" s="71"/>
+      <c r="AT32" s="71"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="71"/>
+      <c r="AW32" s="71"/>
+      <c r="AX32" s="71"/>
+      <c r="AY32" s="71"/>
+      <c r="AZ32" s="71"/>
+      <c r="BA32" s="72"/>
       <c r="BB32" s="3"/>
       <c r="BC32" s="3"/>
       <c r="BD32" s="10"/>
       <c r="BE32" s="6"/>
       <c r="BF32" s="3"/>
       <c r="BG32" s="3"/>
-      <c r="BH32" s="37" t="s">
+      <c r="BH32" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="BI32" s="38"/>
-      <c r="BJ32" s="38"/>
-      <c r="BK32" s="38"/>
-      <c r="BL32" s="38"/>
-      <c r="BM32" s="38"/>
-      <c r="BN32" s="38"/>
-      <c r="BO32" s="38"/>
-      <c r="BP32" s="38"/>
-      <c r="BQ32" s="39"/>
+      <c r="BI32" s="71"/>
+      <c r="BJ32" s="71"/>
+      <c r="BK32" s="71"/>
+      <c r="BL32" s="71"/>
+      <c r="BM32" s="71"/>
+      <c r="BN32" s="71"/>
+      <c r="BO32" s="71"/>
+      <c r="BP32" s="71"/>
+      <c r="BQ32" s="72"/>
       <c r="BR32" s="3"/>
       <c r="BS32" s="3"/>
     </row>
@@ -4073,31 +4408,31 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="53"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="84"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="6"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="42"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="75"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
@@ -4110,32 +4445,32 @@
       <c r="AO33" s="6"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="40"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="42"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="75"/>
       <c r="BB33" s="3"/>
       <c r="BC33" s="3"/>
       <c r="BD33" s="10"/>
       <c r="BE33" s="6"/>
       <c r="BF33" s="3"/>
       <c r="BG33" s="3"/>
-      <c r="BH33" s="40"/>
-      <c r="BI33" s="41"/>
-      <c r="BJ33" s="41"/>
-      <c r="BK33" s="41"/>
-      <c r="BL33" s="41"/>
-      <c r="BM33" s="41"/>
-      <c r="BN33" s="41"/>
-      <c r="BO33" s="41"/>
-      <c r="BP33" s="41"/>
-      <c r="BQ33" s="42"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="74"/>
+      <c r="BJ33" s="74"/>
+      <c r="BK33" s="74"/>
+      <c r="BL33" s="74"/>
+      <c r="BM33" s="74"/>
+      <c r="BN33" s="74"/>
+      <c r="BO33" s="74"/>
+      <c r="BP33" s="74"/>
+      <c r="BQ33" s="75"/>
       <c r="BR33" s="3"/>
       <c r="BS33" s="3"/>
     </row>
@@ -4148,31 +4483,31 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="53"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="84"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="6"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="42"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="75"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
@@ -4185,32 +4520,32 @@
       <c r="AO34" s="6"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="42"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="75"/>
       <c r="BB34" s="3"/>
       <c r="BC34" s="3"/>
       <c r="BD34" s="10"/>
       <c r="BE34" s="6"/>
       <c r="BF34" s="3"/>
       <c r="BG34" s="3"/>
-      <c r="BH34" s="40"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-      <c r="BM34" s="41"/>
-      <c r="BN34" s="41"/>
-      <c r="BO34" s="41"/>
-      <c r="BP34" s="41"/>
-      <c r="BQ34" s="42"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="74"/>
+      <c r="BJ34" s="74"/>
+      <c r="BK34" s="74"/>
+      <c r="BL34" s="74"/>
+      <c r="BM34" s="74"/>
+      <c r="BN34" s="74"/>
+      <c r="BO34" s="74"/>
+      <c r="BP34" s="74"/>
+      <c r="BQ34" s="75"/>
       <c r="BR34" s="3"/>
       <c r="BS34" s="3"/>
     </row>
@@ -4223,31 +4558,31 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="53"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="6"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="42"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="75"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
@@ -4260,32 +4595,32 @@
       <c r="AO35" s="6"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
-      <c r="AR35" s="40"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="42"/>
+      <c r="AR35" s="73"/>
+      <c r="AS35" s="74"/>
+      <c r="AT35" s="74"/>
+      <c r="AU35" s="74"/>
+      <c r="AV35" s="74"/>
+      <c r="AW35" s="74"/>
+      <c r="AX35" s="74"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="74"/>
+      <c r="BA35" s="75"/>
       <c r="BB35" s="3"/>
       <c r="BC35" s="3"/>
       <c r="BD35" s="10"/>
       <c r="BE35" s="6"/>
       <c r="BF35" s="3"/>
       <c r="BG35" s="3"/>
-      <c r="BH35" s="40"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="41"/>
-      <c r="BO35" s="41"/>
-      <c r="BP35" s="41"/>
-      <c r="BQ35" s="42"/>
+      <c r="BH35" s="73"/>
+      <c r="BI35" s="74"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="74"/>
+      <c r="BL35" s="74"/>
+      <c r="BM35" s="74"/>
+      <c r="BN35" s="74"/>
+      <c r="BO35" s="74"/>
+      <c r="BP35" s="74"/>
+      <c r="BQ35" s="75"/>
       <c r="BR35" s="3"/>
       <c r="BS35" s="3"/>
     </row>
@@ -4298,31 +4633,31 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="6"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="42"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="75"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
@@ -4335,32 +4670,32 @@
       <c r="AO36" s="6"/>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="42"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="74"/>
+      <c r="AX36" s="74"/>
+      <c r="AY36" s="74"/>
+      <c r="AZ36" s="74"/>
+      <c r="BA36" s="75"/>
       <c r="BB36" s="3"/>
       <c r="BC36" s="3"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="6"/>
       <c r="BF36" s="3"/>
       <c r="BG36" s="3"/>
-      <c r="BH36" s="40"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="41"/>
-      <c r="BL36" s="41"/>
-      <c r="BM36" s="41"/>
-      <c r="BN36" s="41"/>
-      <c r="BO36" s="41"/>
-      <c r="BP36" s="41"/>
-      <c r="BQ36" s="42"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="74"/>
+      <c r="BJ36" s="74"/>
+      <c r="BK36" s="74"/>
+      <c r="BL36" s="74"/>
+      <c r="BM36" s="74"/>
+      <c r="BN36" s="74"/>
+      <c r="BO36" s="74"/>
+      <c r="BP36" s="74"/>
+      <c r="BQ36" s="75"/>
       <c r="BR36" s="3"/>
       <c r="BS36" s="3"/>
     </row>
@@ -4373,31 +4708,31 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="84"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="6"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="42"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="75"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
@@ -4410,32 +4745,32 @@
       <c r="AO37" s="6"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41"/>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="42"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="74"/>
+      <c r="AT37" s="74"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="74"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="74"/>
+      <c r="AZ37" s="74"/>
+      <c r="BA37" s="75"/>
       <c r="BB37" s="3"/>
       <c r="BC37" s="3"/>
       <c r="BD37" s="10"/>
       <c r="BE37" s="6"/>
       <c r="BF37" s="3"/>
       <c r="BG37" s="3"/>
-      <c r="BH37" s="40"/>
-      <c r="BI37" s="41"/>
-      <c r="BJ37" s="41"/>
-      <c r="BK37" s="41"/>
-      <c r="BL37" s="41"/>
-      <c r="BM37" s="41"/>
-      <c r="BN37" s="41"/>
-      <c r="BO37" s="41"/>
-      <c r="BP37" s="41"/>
-      <c r="BQ37" s="42"/>
+      <c r="BH37" s="73"/>
+      <c r="BI37" s="74"/>
+      <c r="BJ37" s="74"/>
+      <c r="BK37" s="74"/>
+      <c r="BL37" s="74"/>
+      <c r="BM37" s="74"/>
+      <c r="BN37" s="74"/>
+      <c r="BO37" s="74"/>
+      <c r="BP37" s="74"/>
+      <c r="BQ37" s="75"/>
       <c r="BR37" s="3"/>
       <c r="BS37" s="3"/>
     </row>
@@ -4448,31 +4783,31 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="84"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="6"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="42"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="75"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
@@ -4485,32 +4820,32 @@
       <c r="AO38" s="6"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="41"/>
-      <c r="AT38" s="41"/>
-      <c r="AU38" s="41"/>
-      <c r="AV38" s="41"/>
-      <c r="AW38" s="41"/>
-      <c r="AX38" s="41"/>
-      <c r="AY38" s="41"/>
-      <c r="AZ38" s="41"/>
-      <c r="BA38" s="42"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="74"/>
+      <c r="AY38" s="74"/>
+      <c r="AZ38" s="74"/>
+      <c r="BA38" s="75"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
       <c r="BD38" s="10"/>
       <c r="BE38" s="6"/>
       <c r="BF38" s="3"/>
       <c r="BG38" s="3"/>
-      <c r="BH38" s="40"/>
-      <c r="BI38" s="41"/>
-      <c r="BJ38" s="41"/>
-      <c r="BK38" s="41"/>
-      <c r="BL38" s="41"/>
-      <c r="BM38" s="41"/>
-      <c r="BN38" s="41"/>
-      <c r="BO38" s="41"/>
-      <c r="BP38" s="41"/>
-      <c r="BQ38" s="42"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="74"/>
+      <c r="BJ38" s="74"/>
+      <c r="BK38" s="74"/>
+      <c r="BL38" s="74"/>
+      <c r="BM38" s="74"/>
+      <c r="BN38" s="74"/>
+      <c r="BO38" s="74"/>
+      <c r="BP38" s="74"/>
+      <c r="BQ38" s="75"/>
       <c r="BR38" s="3"/>
       <c r="BS38" s="3"/>
     </row>
@@ -4523,31 +4858,31 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="53"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="84"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="6"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="42"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="74"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="74"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="75"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
@@ -4560,32 +4895,32 @@
       <c r="AO39" s="6"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="41"/>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
-      <c r="BA39" s="42"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="74"/>
+      <c r="AU39" s="74"/>
+      <c r="AV39" s="74"/>
+      <c r="AW39" s="74"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="74"/>
+      <c r="BA39" s="75"/>
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
       <c r="BD39" s="10"/>
       <c r="BE39" s="6"/>
       <c r="BF39" s="3"/>
       <c r="BG39" s="3"/>
-      <c r="BH39" s="40"/>
-      <c r="BI39" s="41"/>
-      <c r="BJ39" s="41"/>
-      <c r="BK39" s="41"/>
-      <c r="BL39" s="41"/>
-      <c r="BM39" s="41"/>
-      <c r="BN39" s="41"/>
-      <c r="BO39" s="41"/>
-      <c r="BP39" s="41"/>
-      <c r="BQ39" s="42"/>
+      <c r="BH39" s="73"/>
+      <c r="BI39" s="74"/>
+      <c r="BJ39" s="74"/>
+      <c r="BK39" s="74"/>
+      <c r="BL39" s="74"/>
+      <c r="BM39" s="74"/>
+      <c r="BN39" s="74"/>
+      <c r="BO39" s="74"/>
+      <c r="BP39" s="74"/>
+      <c r="BQ39" s="75"/>
       <c r="BR39" s="3"/>
       <c r="BS39" s="3"/>
     </row>
@@ -4598,31 +4933,31 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="53"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="84"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="6"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="42"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
+      <c r="AA40" s="74"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="74"/>
+      <c r="AD40" s="74"/>
+      <c r="AE40" s="75"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
@@ -4635,32 +4970,32 @@
       <c r="AO40" s="6"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="41"/>
-      <c r="AU40" s="41"/>
-      <c r="AV40" s="41"/>
-      <c r="AW40" s="41"/>
-      <c r="AX40" s="41"/>
-      <c r="AY40" s="41"/>
-      <c r="AZ40" s="41"/>
-      <c r="BA40" s="42"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="74"/>
+      <c r="AT40" s="74"/>
+      <c r="AU40" s="74"/>
+      <c r="AV40" s="74"/>
+      <c r="AW40" s="74"/>
+      <c r="AX40" s="74"/>
+      <c r="AY40" s="74"/>
+      <c r="AZ40" s="74"/>
+      <c r="BA40" s="75"/>
       <c r="BB40" s="3"/>
       <c r="BC40" s="3"/>
       <c r="BD40" s="10"/>
       <c r="BE40" s="6"/>
       <c r="BF40" s="3"/>
       <c r="BG40" s="3"/>
-      <c r="BH40" s="40"/>
-      <c r="BI40" s="41"/>
-      <c r="BJ40" s="41"/>
-      <c r="BK40" s="41"/>
-      <c r="BL40" s="41"/>
-      <c r="BM40" s="41"/>
-      <c r="BN40" s="41"/>
-      <c r="BO40" s="41"/>
-      <c r="BP40" s="41"/>
-      <c r="BQ40" s="42"/>
+      <c r="BH40" s="73"/>
+      <c r="BI40" s="74"/>
+      <c r="BJ40" s="74"/>
+      <c r="BK40" s="74"/>
+      <c r="BL40" s="74"/>
+      <c r="BM40" s="74"/>
+      <c r="BN40" s="74"/>
+      <c r="BO40" s="74"/>
+      <c r="BP40" s="74"/>
+      <c r="BQ40" s="75"/>
       <c r="BR40" s="3"/>
       <c r="BS40" s="3"/>
     </row>
@@ -4673,31 +5008,31 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="56"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="87"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="6"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="45"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="77"/>
+      <c r="AB41" s="77"/>
+      <c r="AC41" s="77"/>
+      <c r="AD41" s="77"/>
+      <c r="AE41" s="78"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
@@ -4710,32 +5045,32 @@
       <c r="AO41" s="6"/>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
-      <c r="AR41" s="43"/>
-      <c r="AS41" s="44"/>
-      <c r="AT41" s="44"/>
-      <c r="AU41" s="44"/>
-      <c r="AV41" s="44"/>
-      <c r="AW41" s="44"/>
-      <c r="AX41" s="44"/>
-      <c r="AY41" s="44"/>
-      <c r="AZ41" s="44"/>
-      <c r="BA41" s="45"/>
+      <c r="AR41" s="76"/>
+      <c r="AS41" s="77"/>
+      <c r="AT41" s="77"/>
+      <c r="AU41" s="77"/>
+      <c r="AV41" s="77"/>
+      <c r="AW41" s="77"/>
+      <c r="AX41" s="77"/>
+      <c r="AY41" s="77"/>
+      <c r="AZ41" s="77"/>
+      <c r="BA41" s="78"/>
       <c r="BB41" s="3"/>
       <c r="BC41" s="3"/>
       <c r="BD41" s="10"/>
       <c r="BE41" s="6"/>
       <c r="BF41" s="3"/>
       <c r="BG41" s="3"/>
-      <c r="BH41" s="43"/>
-      <c r="BI41" s="44"/>
-      <c r="BJ41" s="44"/>
-      <c r="BK41" s="44"/>
-      <c r="BL41" s="44"/>
-      <c r="BM41" s="44"/>
-      <c r="BN41" s="44"/>
-      <c r="BO41" s="44"/>
-      <c r="BP41" s="44"/>
-      <c r="BQ41" s="45"/>
+      <c r="BH41" s="76"/>
+      <c r="BI41" s="77"/>
+      <c r="BJ41" s="77"/>
+      <c r="BK41" s="77"/>
+      <c r="BL41" s="77"/>
+      <c r="BM41" s="77"/>
+      <c r="BN41" s="77"/>
+      <c r="BO41" s="77"/>
+      <c r="BP41" s="77"/>
+      <c r="BQ41" s="78"/>
       <c r="BR41" s="3"/>
       <c r="BS41" s="3"/>
     </row>
@@ -4751,14 +5086,14 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M42" s="25"/>
+      <c r="J42" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="93"/>
+      <c r="L42" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="93"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4770,12 +5105,12 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="Y42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="23"/>
+      <c r="Y42" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="90"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
@@ -4786,42 +5121,42 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-      <c r="AM42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-      <c r="AP42" s="23"/>
+      <c r="AM42" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN42" s="89"/>
+      <c r="AO42" s="89"/>
+      <c r="AP42" s="90"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
-      <c r="AU42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV42" s="22"/>
-      <c r="AW42" s="22"/>
-      <c r="AX42" s="23"/>
+      <c r="AU42" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV42" s="89"/>
+      <c r="AW42" s="89"/>
+      <c r="AX42" s="90"/>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3"/>
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
-      <c r="BC42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD42" s="22"/>
-      <c r="BE42" s="22"/>
-      <c r="BF42" s="23"/>
+      <c r="BC42" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD42" s="89"/>
+      <c r="BE42" s="89"/>
+      <c r="BF42" s="90"/>
       <c r="BG42" s="3"/>
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
-      <c r="BK42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL42" s="22"/>
-      <c r="BM42" s="22"/>
-      <c r="BN42" s="23"/>
+      <c r="BK42" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL42" s="89"/>
+      <c r="BM42" s="89"/>
+      <c r="BN42" s="90"/>
       <c r="BO42" s="3"/>
       <c r="BP42" s="3"/>
       <c r="BQ42" s="3"/>
@@ -4840,12 +5175,12 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="67"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4857,12 +5192,12 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-      <c r="Y43" s="34" t="s">
+      <c r="Y43" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="36"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="67"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
@@ -4873,42 +5208,42 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-      <c r="AM43" s="34" t="s">
+      <c r="AM43" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AN43" s="35"/>
-      <c r="AO43" s="35"/>
-      <c r="AP43" s="36"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="67"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
-      <c r="AU43" s="34" t="s">
+      <c r="AU43" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AV43" s="35"/>
-      <c r="AW43" s="35"/>
-      <c r="AX43" s="36"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="67"/>
       <c r="AY43" s="3"/>
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
-      <c r="BC43" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD43" s="35"/>
-      <c r="BE43" s="35"/>
-      <c r="BF43" s="36"/>
+      <c r="BC43" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD43" s="66"/>
+      <c r="BE43" s="66"/>
+      <c r="BF43" s="67"/>
       <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
-      <c r="BK43" s="34" t="s">
+      <c r="BK43" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="BL43" s="35"/>
-      <c r="BM43" s="35"/>
-      <c r="BN43" s="36"/>
+      <c r="BL43" s="66"/>
+      <c r="BM43" s="66"/>
+      <c r="BN43" s="67"/>
       <c r="BO43" s="3"/>
       <c r="BP43" s="3"/>
       <c r="BQ43" s="3"/>
@@ -5087,20 +5422,20 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="27" t="s">
+      <c r="T46" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="9"/>
-      <c r="Z46" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="59"/>
+      <c r="Z46" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="41"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
@@ -5111,32 +5446,32 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
-      <c r="AN46" s="27" t="s">
+      <c r="AN46" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="27"/>
-      <c r="AR46" s="27"/>
-      <c r="AS46" s="27"/>
+      <c r="AO46" s="38"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="38"/>
+      <c r="AS46" s="38"/>
       <c r="AT46" s="3"/>
-      <c r="AU46" s="27" t="s">
+      <c r="AU46" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AV46" s="27"/>
-      <c r="AW46" s="27"/>
-      <c r="AX46" s="27"/>
-      <c r="AY46" s="27"/>
-      <c r="AZ46" s="27"/>
+      <c r="AV46" s="38"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="38"/>
+      <c r="AY46" s="38"/>
+      <c r="AZ46" s="38"/>
       <c r="BA46" s="3"/>
-      <c r="BB46" s="27" t="s">
+      <c r="BB46" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="BC46" s="27"/>
-      <c r="BD46" s="27"/>
-      <c r="BE46" s="27"/>
-      <c r="BF46" s="27"/>
-      <c r="BG46" s="27"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
+      <c r="BF46" s="38"/>
+      <c r="BG46" s="38"/>
       <c r="BH46" s="3"/>
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
@@ -5230,92 +5565,92 @@
         <v>1380</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="33"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="27" t="s">
+      <c r="Q48" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="27" t="s">
+      <c r="Y48" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
-      <c r="AL48" s="30"/>
+      <c r="AG48" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="64"/>
       <c r="AM48" s="3"/>
-      <c r="AN48" s="27" t="s">
+      <c r="AN48" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="27"/>
-      <c r="AQ48" s="27"/>
-      <c r="AR48" s="27"/>
-      <c r="AS48" s="27"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
       <c r="AT48" s="3"/>
-      <c r="AU48" s="27" t="s">
+      <c r="AU48" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AV48" s="27"/>
-      <c r="AW48" s="27"/>
-      <c r="AX48" s="27"/>
-      <c r="AY48" s="27"/>
-      <c r="AZ48" s="27"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
       <c r="BA48" s="3"/>
-      <c r="BB48" s="27" t="s">
+      <c r="BB48" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="BC48" s="27"/>
-      <c r="BD48" s="27"/>
-      <c r="BE48" s="27"/>
-      <c r="BF48" s="27"/>
-      <c r="BG48" s="27"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="38"/>
       <c r="BH48" s="3"/>
-      <c r="BI48" s="27" t="s">
+      <c r="BI48" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="BJ48" s="27"/>
-      <c r="BK48" s="27"/>
+      <c r="BJ48" s="38"/>
+      <c r="BK48" s="38"/>
       <c r="BL48" s="3"/>
-      <c r="BM48" s="63"/>
-      <c r="BN48" s="64"/>
-      <c r="BO48" s="64"/>
-      <c r="BP48" s="64"/>
-      <c r="BQ48" s="64"/>
-      <c r="BR48" s="65"/>
+      <c r="BM48" s="59"/>
+      <c r="BN48" s="60"/>
+      <c r="BO48" s="60"/>
+      <c r="BP48" s="60"/>
+      <c r="BQ48" s="60"/>
+      <c r="BR48" s="61"/>
       <c r="BS48" s="3"/>
     </row>
     <row r="49" spans="1:71" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5398,14 +5733,14 @@
         <v>1440</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -5414,74 +5749,74 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="27" t="s">
+      <c r="Q50" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-      <c r="Y50" s="27" t="s">
+      <c r="Y50" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-      <c r="AG50" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="30"/>
+      <c r="AG50" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="64"/>
       <c r="AM50" s="3"/>
-      <c r="AN50" s="31" t="s">
+      <c r="AN50" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AO50" s="32"/>
-      <c r="AP50" s="32"/>
-      <c r="AQ50" s="32"/>
-      <c r="AR50" s="32"/>
-      <c r="AS50" s="33"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="56"/>
       <c r="AT50" s="3"/>
-      <c r="AU50" s="27" t="s">
+      <c r="AU50" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AV50" s="27"/>
-      <c r="AW50" s="27"/>
-      <c r="AX50" s="27"/>
-      <c r="AY50" s="27"/>
-      <c r="AZ50" s="27"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
       <c r="BA50" s="3"/>
-      <c r="BB50" s="27" t="s">
+      <c r="BB50" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BC50" s="27"/>
-      <c r="BD50" s="27"/>
-      <c r="BE50" s="27"/>
-      <c r="BF50" s="27"/>
-      <c r="BG50" s="27"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
+      <c r="BG50" s="38"/>
       <c r="BH50" s="3"/>
-      <c r="BI50" s="27" t="s">
+      <c r="BI50" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BJ50" s="27"/>
-      <c r="BK50" s="27"/>
+      <c r="BJ50" s="38"/>
+      <c r="BK50" s="38"/>
       <c r="BL50" s="3"/>
-      <c r="BM50" s="60"/>
-      <c r="BN50" s="61"/>
-      <c r="BO50" s="61"/>
-      <c r="BP50" s="61"/>
-      <c r="BQ50" s="61"/>
-      <c r="BR50" s="62"/>
+      <c r="BM50" s="57"/>
+      <c r="BN50" s="58"/>
+      <c r="BO50" s="58"/>
+      <c r="BP50" s="58"/>
+      <c r="BQ50" s="58"/>
+      <c r="BR50" s="51"/>
       <c r="BS50" s="3"/>
     </row>
     <row r="51" spans="1:71" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5560,7 +5895,43 @@
       <c r="BS51" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="107">
+    <mergeCell ref="AT5:AU6"/>
+    <mergeCell ref="BK42:BN42"/>
+    <mergeCell ref="AU42:AX42"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="BC23:BF23"/>
+    <mergeCell ref="BV12:BX12"/>
+    <mergeCell ref="BV8:CA8"/>
+    <mergeCell ref="BV10:BX10"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BJ6:BK7"/>
+    <mergeCell ref="AX6:AY7"/>
+    <mergeCell ref="BK43:BN43"/>
+    <mergeCell ref="AU43:AX43"/>
+    <mergeCell ref="AR32:BA41"/>
+    <mergeCell ref="BH32:BQ41"/>
+    <mergeCell ref="BC43:BF43"/>
+    <mergeCell ref="BC42:BF42"/>
+    <mergeCell ref="AG50:AL50"/>
+    <mergeCell ref="AN48:AS48"/>
+    <mergeCell ref="AN50:AS50"/>
+    <mergeCell ref="BB46:BG46"/>
+    <mergeCell ref="AU46:AZ46"/>
+    <mergeCell ref="Y43:AB43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="V32:AE41"/>
+    <mergeCell ref="G32:P41"/>
+    <mergeCell ref="AN46:AS46"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="Z46:AC46"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="C50:H50"/>
@@ -5577,52 +5948,1324 @@
     <mergeCell ref="AU48:AZ48"/>
     <mergeCell ref="AU50:AZ50"/>
     <mergeCell ref="AG48:AL48"/>
-    <mergeCell ref="Y43:AB43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="V32:AE41"/>
-    <mergeCell ref="G32:P41"/>
-    <mergeCell ref="AN46:AS46"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AZ18:BC18"/>
-    <mergeCell ref="BF18:BI18"/>
-    <mergeCell ref="BK43:BN43"/>
-    <mergeCell ref="AU43:AX43"/>
-    <mergeCell ref="AR32:BA41"/>
-    <mergeCell ref="BH32:BQ41"/>
-    <mergeCell ref="AR28:AU28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BC43:BF43"/>
-    <mergeCell ref="BI22:BL22"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="BN18:BQ18"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="BI26:BL26"/>
-    <mergeCell ref="BC42:BF42"/>
-    <mergeCell ref="AG50:AL50"/>
-    <mergeCell ref="AN48:AS48"/>
-    <mergeCell ref="AN50:AS50"/>
-    <mergeCell ref="BB46:BG46"/>
-    <mergeCell ref="AU46:AZ46"/>
-    <mergeCell ref="BV12:BX12"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BV8:CA8"/>
-    <mergeCell ref="BV10:BX10"/>
-    <mergeCell ref="BK42:BN42"/>
-    <mergeCell ref="AU42:AX42"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BJ16:BK16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AS15:AT16"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="AX26:AY27"/>
+    <mergeCell ref="BM26:BM27"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="BA21:BA22"/>
+    <mergeCell ref="BH21:BH22"/>
+    <mergeCell ref="AW25:AX25"/>
+    <mergeCell ref="BI25:BJ25"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="BL16:BM16"/>
+    <mergeCell ref="AW17:AX18"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="BH9:BH10"/>
+    <mergeCell ref="BA11:BA12"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="AT27:AU28"/>
+    <mergeCell ref="BN27:BO28"/>
+    <mergeCell ref="BJ26:BK27"/>
+    <mergeCell ref="BI22:BJ23"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AS19:AU20"/>
+    <mergeCell ref="AY22:AZ23"/>
+    <mergeCell ref="BN19:BP20"/>
+    <mergeCell ref="BL10:BN11"/>
+    <mergeCell ref="BA28:BC29"/>
+    <mergeCell ref="BF28:BH29"/>
+    <mergeCell ref="BN5:BO6"/>
+    <mergeCell ref="BO15:BP16"/>
+    <mergeCell ref="BK17:BL18"/>
+    <mergeCell ref="BG15:BH16"/>
+    <mergeCell ref="BA15:BB16"/>
+    <mergeCell ref="BP17:BQ17"/>
+    <mergeCell ref="AY25:AZ25"/>
+    <mergeCell ref="BK25:BL25"/>
+    <mergeCell ref="AY10:AZ11"/>
+    <mergeCell ref="BI10:BJ11"/>
+    <mergeCell ref="BN17:BO17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B4F27D-44FE-41AF-8C0E-6194BC3B5BEC}">
+  <dimension ref="A1:CE51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.9296875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="80" width="1.9296875" style="2"/>
+    <col min="81" max="81" width="2.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="16384" width="1.9296875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1">
+        <v>150</v>
+      </c>
+      <c r="H1" s="1">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1">
+        <v>240</v>
+      </c>
+      <c r="K1" s="1">
+        <v>270</v>
+      </c>
+      <c r="L1" s="1">
+        <v>300</v>
+      </c>
+      <c r="M1" s="1">
+        <v>330</v>
+      </c>
+      <c r="N1" s="1">
+        <v>360</v>
+      </c>
+      <c r="O1" s="1">
+        <v>390</v>
+      </c>
+      <c r="P1" s="1">
+        <v>420</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>450</v>
+      </c>
+      <c r="R1" s="1">
+        <v>480</v>
+      </c>
+      <c r="S1" s="1">
+        <v>510</v>
+      </c>
+      <c r="T1" s="1">
+        <v>540</v>
+      </c>
+      <c r="U1" s="1">
+        <v>570</v>
+      </c>
+      <c r="V1" s="1">
+        <v>600</v>
+      </c>
+      <c r="W1" s="1">
+        <v>630</v>
+      </c>
+      <c r="X1" s="1">
+        <v>660</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>690</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>720</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>750</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>780</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>810</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>840</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>870</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>900</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>930</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>960</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>990</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>1020</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>1050</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>1080</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>1140</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>1170</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>1230</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>1260</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>1290</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>1320</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>1350</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>1380</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>1410</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>1440</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>1470</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>1500</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>1530</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>1560</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>1590</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>1620</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>1650</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>1680</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>1710</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>1740</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>1770</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>1830</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>1860</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>1890</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>1920</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>1950</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>1980</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="24"/>
+    </row>
+    <row r="3" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="105"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="20"/>
+      <c r="X3" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CC3" s="17"/>
+      <c r="CD3" s="18"/>
+      <c r="CE3" s="19"/>
+    </row>
+    <row r="4" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>60</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+    </row>
+    <row r="5" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>90</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="99"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+    </row>
+    <row r="6" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>120</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+    </row>
+    <row r="7" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>150</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="20"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>180</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+    </row>
+    <row r="9" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>210</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="20"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>240</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+    </row>
+    <row r="11" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>270</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="20"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+    </row>
+    <row r="12" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>300</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="100"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+    </row>
+    <row r="13" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>330</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+    </row>
+    <row r="14" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>360</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+    </row>
+    <row r="15" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>390</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+    </row>
+    <row r="16" spans="1:83" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>420</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="27"/>
+    </row>
+    <row r="17" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>450</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="27"/>
+    </row>
+    <row r="18" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>480</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="27"/>
+    </row>
+    <row r="19" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>510</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="27"/>
+    </row>
+    <row r="20" spans="1:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>540</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="30"/>
+    </row>
+    <row r="21" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="10.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>1470</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="X3:AJ15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/New_UI.xlsx
+++ b/New_UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://peterru-my.sharepoint.com/personal/me_peterrusiecki_eu/Documents/Code/hexapod_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="940" documentId="8_{66BD43C0-C38C-4CBA-8B7E-386B1F07CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89878F54-4D55-4B1B-8EBE-214D56543E8B}"/>
+  <xr:revisionPtr revIDLastSave="954" documentId="8_{66BD43C0-C38C-4CBA-8B7E-386B1F07CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127F5B88-95E4-4B79-8EC4-2D8D8203D684}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{EE134321-7F2B-40EB-98BD-7232E33EDF77}"/>
+    <workbookView xWindow="5715" yWindow="0" windowWidth="18585" windowHeight="10350" xr2:uid="{EE134321-7F2B-40EB-98BD-7232E33EDF77}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>Old Button</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Refresh</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -1030,6 +1033,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,15 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,13 +1144,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,10 +1509,10 @@
   <dimension ref="A1:CW51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC23" sqref="BC23:BF23"/>
+      <selection pane="bottomRight" activeCell="BM28" sqref="BM28:BM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.9296875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2488,7 +2491,7 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="5"/>
       <c r="AU10" s="42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AV10" s="43"/>
       <c r="AW10" s="46"/>
@@ -2511,7 +2514,7 @@
       <c r="BJ10" s="46"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BM10" s="43"/>
       <c r="BN10" s="46"/>
@@ -2693,9 +2696,9 @@
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
       <c r="BS12" s="3"/>
-      <c r="BV12" s="91"/>
-      <c r="BW12" s="91"/>
-      <c r="BX12" s="91"/>
+      <c r="BV12" s="93"/>
+      <c r="BW12" s="93"/>
+      <c r="BX12" s="93"/>
       <c r="CE12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3304,7 +3307,7 @@
       <c r="AQ19" s="3"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT19" s="43"/>
       <c r="AU19" s="46"/>
@@ -3327,7 +3330,7 @@
       <c r="BL19" s="3"/>
       <c r="BM19" s="3"/>
       <c r="BN19" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BO19" s="43"/>
       <c r="BP19" s="46"/>
@@ -3568,10 +3571,12 @@
       <c r="AZ22" s="43"/>
       <c r="BA22" s="53"/>
       <c r="BB22" s="6"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
+      <c r="BC22" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55"/>
+      <c r="BF22" s="56"/>
       <c r="BG22" s="5"/>
       <c r="BH22" s="53"/>
       <c r="BI22" s="43" t="s">
@@ -3657,12 +3662,12 @@
         <v>56</v>
       </c>
       <c r="BB23" s="6"/>
-      <c r="BC23" s="62" t="s">
+      <c r="BC23" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="64"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="55"/>
+      <c r="BF23" s="56"/>
       <c r="BG23" s="5"/>
       <c r="BH23" s="52" t="s">
         <v>56</v>
@@ -4070,14 +4075,14 @@
       <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
       <c r="BA28" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BB28" s="43"/>
       <c r="BC28" s="46"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="BF28" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BG28" s="43"/>
       <c r="BH28" s="46"/>
@@ -5086,14 +5091,14 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="92" t="s">
+      <c r="J42" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="93"/>
-      <c r="L42" s="92" t="s">
+      <c r="K42" s="92"/>
+      <c r="L42" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="93"/>
+      <c r="M42" s="92"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -5574,14 +5579,14 @@
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="54" t="s">
+      <c r="J48" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="56"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="59"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="38" t="s">
         <v>22</v>
@@ -5603,14 +5608,14 @@
       <c r="AD48" s="38"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="62" t="s">
+      <c r="AG48" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AH48" s="63"/>
-      <c r="AI48" s="63"/>
-      <c r="AJ48" s="63"/>
-      <c r="AK48" s="63"/>
-      <c r="AL48" s="64"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="56"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="38" t="s">
         <v>20</v>
@@ -5645,12 +5650,12 @@
       <c r="BJ48" s="38"/>
       <c r="BK48" s="38"/>
       <c r="BL48" s="3"/>
-      <c r="BM48" s="59"/>
-      <c r="BN48" s="60"/>
-      <c r="BO48" s="60"/>
-      <c r="BP48" s="60"/>
-      <c r="BQ48" s="60"/>
-      <c r="BR48" s="61"/>
+      <c r="BM48" s="62"/>
+      <c r="BN48" s="63"/>
+      <c r="BO48" s="63"/>
+      <c r="BP48" s="63"/>
+      <c r="BQ48" s="63"/>
+      <c r="BR48" s="64"/>
       <c r="BS48" s="3"/>
     </row>
     <row r="49" spans="1:71" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5769,23 +5774,23 @@
       <c r="AD50" s="38"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-      <c r="AG50" s="62" t="s">
+      <c r="AG50" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="64"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="56"/>
       <c r="AM50" s="3"/>
-      <c r="AN50" s="54" t="s">
+      <c r="AN50" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AO50" s="55"/>
-      <c r="AP50" s="55"/>
-      <c r="AQ50" s="55"/>
-      <c r="AR50" s="55"/>
-      <c r="AS50" s="56"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="58"/>
+      <c r="AQ50" s="58"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="59"/>
       <c r="AT50" s="3"/>
       <c r="AU50" s="38" t="s">
         <v>16</v>
@@ -5811,11 +5816,11 @@
       <c r="BJ50" s="38"/>
       <c r="BK50" s="38"/>
       <c r="BL50" s="3"/>
-      <c r="BM50" s="57"/>
-      <c r="BN50" s="58"/>
-      <c r="BO50" s="58"/>
-      <c r="BP50" s="58"/>
-      <c r="BQ50" s="58"/>
+      <c r="BM50" s="60"/>
+      <c r="BN50" s="61"/>
+      <c r="BO50" s="61"/>
+      <c r="BP50" s="61"/>
+      <c r="BQ50" s="61"/>
       <c r="BR50" s="51"/>
       <c r="BS50" s="3"/>
     </row>
@@ -5895,7 +5900,7 @@
       <c r="BS51" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="108">
     <mergeCell ref="AT5:AU6"/>
     <mergeCell ref="BK42:BN42"/>
     <mergeCell ref="AU42:AX42"/>
@@ -5912,6 +5917,14 @@
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BJ6:BK7"/>
     <mergeCell ref="AX6:AY7"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BJ16:BK16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AS15:AT16"/>
+    <mergeCell ref="BM28:BM29"/>
     <mergeCell ref="BK43:BN43"/>
     <mergeCell ref="AU43:AX43"/>
     <mergeCell ref="AR32:BA41"/>
@@ -5948,14 +5961,6 @@
     <mergeCell ref="AU48:AZ48"/>
     <mergeCell ref="AU50:AZ50"/>
     <mergeCell ref="AG48:AL48"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BJ16:BK16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AS15:AT16"/>
-    <mergeCell ref="BM28:BM29"/>
     <mergeCell ref="BH23:BH24"/>
     <mergeCell ref="AV28:AV29"/>
     <mergeCell ref="BA23:BA24"/>
@@ -5966,6 +5971,7 @@
     <mergeCell ref="BH21:BH22"/>
     <mergeCell ref="AW25:AX25"/>
     <mergeCell ref="BI25:BJ25"/>
+    <mergeCell ref="BC22:BF22"/>
     <mergeCell ref="AY8:AZ8"/>
     <mergeCell ref="BK8:BL8"/>
     <mergeCell ref="AX16:AY16"/>
@@ -7248,6 +7254,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="X3:AJ15"/>
@@ -7263,8 +7271,6 @@
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
